--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.9.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.9.xlsx
@@ -63,6 +63,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2219,7 +2220,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="F47" activeCellId="1" sqref="H4 F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2227,12 +2228,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.5546558704453"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="130.46963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="131.647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -4290,17 +4291,17 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="H4 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8866396761134"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4464,24 +4465,24 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="65.9838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="65.9838056680162"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="98.5506072874494"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="66.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="66.5222672064777"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="99.4048582995952"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="72.4129554655871"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="61" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="61" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="61" width="11.6761133603239"/>
@@ -4641,7 +4642,7 @@
       </c>
       <c r="S3" s="92"/>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>35</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>298</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="3" t="s">
@@ -4711,7 +4712,7 @@
         <v>298</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>197</v>
@@ -4803,21 +4804,21 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="H4 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="96.5141700404858"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="77.1255060728745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="97.3724696356275"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="77.7692307692308"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -5228,7 +5229,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="H4 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5352,19 +5353,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="H4 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.0607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.3805668016194"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="57.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -5481,7 +5482,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="H4 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5558,20 +5559,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="H4 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.0931174089069"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="68.5546558704453"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5755,27 +5756,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="H4 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="84.5182186234818"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="85.2672064777328"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.9838056680162"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.4534412955466"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.8866396761134"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -6243,7 +6244,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="H4 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6254,14 +6255,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.4210526315789"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -6385,17 +6386,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="H4 C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.0526315789474"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="113.437246963563"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="114.404858299595"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6650,20 +6651,20 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="H4 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="77.3400809716599"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="82.4817813765182"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="61" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="104.655870445344"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="105.619433198381"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="61" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="61" width="13.3886639676113"/>
@@ -7190,26 +7191,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="1" sqref="H4 N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.8461538461538"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="65.9838056680162"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="66.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -7418,24 +7419,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.0607287449393"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.9838056680162"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.6275303643725"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7626,16 +7627,16 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="H4 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.9.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,6 +64,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="335">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1135,6 +1136,9 @@
   </si>
   <si>
     <t xml:space="preserve">TAMANO DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagging</t>
   </si>
   <si>
     <t xml:space="preserve">iterate by</t>
@@ -2220,7 +2224,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F47" activeCellId="1" sqref="H4 F47"/>
+      <selection pane="bottomLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2228,12 +2232,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.0931174089069"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="131.647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="132.825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -4291,17 +4295,17 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="H4 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4322,16 +4326,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G1" s="83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1" s="83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I1" s="83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J1" s="83" t="s">
         <v>8</v>
@@ -4386,7 +4390,7 @@
         <v>143</v>
       </c>
       <c r="F3" s="87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G3" s="87"/>
       <c r="H3" s="84"/>
@@ -4412,7 +4416,7 @@
         <v>143</v>
       </c>
       <c r="F4" s="87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G4" s="87"/>
       <c r="H4" s="84"/>
@@ -4438,7 +4442,7 @@
         <v>143</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
@@ -4465,24 +4469,24 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="66.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="66.5222672064777"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="99.4048582995952"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="100.368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="73.0566801619433"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="61" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="61" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="61" width="11.6761133603239"/>
@@ -4503,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -4515,7 +4519,7 @@
         <v>205</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -4530,13 +4534,13 @@
         <v>192</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>193</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
@@ -4568,7 +4572,7 @@
         <v>117</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>215</v>
@@ -4580,7 +4584,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="3" t="s">
@@ -4615,7 +4619,7 @@
         <v>123</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>215</v>
@@ -4627,7 +4631,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="3" t="s">
@@ -4662,7 +4666,7 @@
         <v>126</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>215</v>
@@ -4674,7 +4678,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="3" t="s">
@@ -4709,7 +4713,7 @@
         <v>130</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>215</v>
@@ -4723,7 +4727,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N5" s="92"/>
       <c r="O5" s="3" t="s">
@@ -4758,10 +4762,10 @@
         <v>133</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="3" t="s">
@@ -4770,7 +4774,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N6" s="92"/>
       <c r="O6" s="3" t="s">
@@ -4804,21 +4808,21 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="H4 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="97.3724696356275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="77.7692307692308"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="78.412955465587"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4839,22 +4843,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -4884,10 +4888,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -4916,10 +4920,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -4947,10 +4951,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -4980,13 +4984,13 @@
         <v>13</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J5" s="10" t="n">
         <v>1</v>
@@ -5019,10 +5023,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -5048,13 +5052,13 @@
         <v>13</v>
       </c>
       <c r="G7" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>309</v>
       </c>
       <c r="J7" s="10" t="n">
         <v>1</v>
@@ -5085,10 +5089,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5114,10 +5118,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5143,10 +5147,10 @@
         <v>13</v>
       </c>
       <c r="G10" s="84" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H10" s="84" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -5172,10 +5176,10 @@
         <v>13</v>
       </c>
       <c r="G11" s="84" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -5199,10 +5203,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H12" s="96" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I12" s="96"/>
       <c r="J12" s="96"/>
@@ -5229,7 +5233,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="H4 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5325,7 +5329,7 @@
         <v>203</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O2" s="85" t="s">
         <v>44</v>
@@ -5353,19 +5357,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="H4 H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.4534412955466"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.3846153846154"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="57.3076923076923"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="57.8461538461538"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -5380,7 +5384,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>6</v>
@@ -5389,25 +5393,25 @@
         <v>205</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>8</v>
@@ -5436,19 +5440,19 @@
         <v>215</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H2" s="98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I2" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>202</v>
@@ -5482,7 +5486,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="H4 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5525,7 +5529,7 @@
         <v>184</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>185</v>
@@ -5534,10 +5538,10 @@
         <v>203</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5559,20 +5563,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="H4 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.7327935222672"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="69.0931174089069"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5756,27 +5760,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="H4 H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="85.2672064777328"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="86.0161943319838"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.8825910931174"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.1012145748988"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -6244,7 +6248,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="H4 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6255,14 +6259,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.7408906882591"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -6386,17 +6390,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="H4 C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.6963562753036"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="114.404858299595"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="115.473684210526"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6648,31 +6652,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="H4 E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="83.1255060728745"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="61" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="105.619433198381"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="61" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="61" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="61" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="61" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="61" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="61" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="61" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="106.582995951417"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="61" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="61" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="61" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="61" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="61" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="61" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="61" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="61" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6710,27 +6714,30 @@
         <v>240</v>
       </c>
       <c r="L1" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="S1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="T1" s="29" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6742,16 +6749,16 @@
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D2" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G2" s="64" t="s">
         <v>60</v>
@@ -6760,26 +6767,29 @@
         <v>201</v>
       </c>
       <c r="I2" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J2" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="65" t="s">
+        <v>197</v>
+      </c>
       <c r="L2" s="65"/>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="0"/>
+      <c r="P2" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="0"/>
+      <c r="R2" s="61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="55" t="n">
         <v>13</v>
       </c>
@@ -6793,38 +6803,41 @@
         <v>59</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H3" s="64" t="s">
         <v>201</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="65" t="s">
+        <v>197</v>
+      </c>
       <c r="L3" s="65"/>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N3" s="0"/>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="0"/>
+      <c r="P3" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="61" t="s">
+      <c r="Q3" s="0"/>
+      <c r="R3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="n">
         <v>14</v>
       </c>
@@ -6838,38 +6851,41 @@
         <v>59</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H4" s="64" t="s">
         <v>201</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J4" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="65"/>
+      <c r="K4" s="65" t="s">
+        <v>197</v>
+      </c>
       <c r="L4" s="65"/>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="65"/>
+      <c r="N4" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N4" s="0"/>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="0"/>
+      <c r="P4" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="0"/>
+      <c r="R4" s="61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="52" t="n">
         <v>15</v>
       </c>
@@ -6883,38 +6899,41 @@
         <v>59</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H5" s="64" t="s">
         <v>201</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J5" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="65"/>
+      <c r="K5" s="65" t="s">
+        <v>197</v>
+      </c>
       <c r="L5" s="65"/>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="65"/>
+      <c r="N5" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N5" s="0"/>
-      <c r="O5" s="61" t="s">
+      <c r="O5" s="0"/>
+      <c r="P5" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="61" t="s">
+      <c r="Q5" s="0"/>
+      <c r="R5" s="61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="55" t="n">
         <v>16</v>
       </c>
@@ -6928,38 +6947,41 @@
         <v>59</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H6" s="64" t="s">
         <v>201</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="K6" s="65"/>
+        <v>248</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>197</v>
+      </c>
       <c r="L6" s="65"/>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="65"/>
+      <c r="N6" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N6" s="0"/>
-      <c r="O6" s="61" t="s">
+      <c r="O6" s="0"/>
+      <c r="P6" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="61" t="s">
+      <c r="Q6" s="0"/>
+      <c r="R6" s="61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="n">
         <v>17</v>
       </c>
@@ -6973,38 +6995,41 @@
         <v>59</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H7" s="64" t="s">
         <v>201</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" s="65"/>
+        <v>248</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>197</v>
+      </c>
       <c r="L7" s="65"/>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="65"/>
+      <c r="N7" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N7" s="0"/>
-      <c r="O7" s="61" t="s">
+      <c r="O7" s="0"/>
+      <c r="P7" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="61" t="s">
+      <c r="Q7" s="0"/>
+      <c r="R7" s="61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="52" t="n">
         <v>18</v>
       </c>
@@ -7018,13 +7043,13 @@
         <v>59</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H8" s="64" t="s">
         <v>201</v>
@@ -7033,21 +7058,24 @@
       <c r="J8" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="66" t="s">
+      <c r="K8" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="L8" s="65"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N8" s="0"/>
-      <c r="O8" s="61" t="s">
+      <c r="O8" s="0"/>
+      <c r="P8" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="61" t="s">
+      <c r="Q8" s="0"/>
+      <c r="R8" s="61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="69" t="s">
         <v>76</v>
       </c>
@@ -7055,16 +7083,16 @@
         <v>78</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>75</v>
@@ -7074,25 +7102,25 @@
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="K9" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="L9" s="0"/>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="0"/>
+      <c r="N9" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N9" s="0"/>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="0"/>
+      <c r="P9" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="0"/>
+      <c r="R9" s="61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="70" t="s">
         <v>91</v>
       </c>
@@ -7106,7 +7134,7 @@
         <v>59</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>75</v>
@@ -7120,19 +7148,20 @@
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
-      <c r="M10" s="66" t="s">
+      <c r="M10" s="46"/>
+      <c r="N10" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="61" t="s">
+      <c r="O10" s="71"/>
+      <c r="P10" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="70" t="s">
         <v>103</v>
       </c>
@@ -7146,7 +7175,7 @@
         <v>59</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>75</v>
@@ -7156,19 +7185,20 @@
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="46"/>
+      <c r="N11" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="61" t="s">
+      <c r="O11" s="71"/>
+      <c r="P11" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46" t="s">
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7191,26 +7221,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="1" sqref="H4 N4"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="66.5222672064777"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.7408906882591"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -7228,7 +7258,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -7249,19 +7279,19 @@
         <v>194</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>232</v>
@@ -7270,13 +7300,13 @@
         <v>192</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>193</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>8</v>
@@ -7300,26 +7330,26 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>176</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
@@ -7351,35 +7381,35 @@
         <v>178</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K3" s="73" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L3" s="73"/>
       <c r="M3" s="74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N3" s="74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O3" s="74" t="s">
         <v>199</v>
@@ -7419,24 +7449,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.3846153846154"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.6275303643725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="70.2712550607288"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7464,10 +7494,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>232</v>
@@ -7476,13 +7506,13 @@
         <v>192</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M1" s="29" t="s">
         <v>193</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O1" s="29" t="s">
         <v>8</v>
@@ -7505,26 +7535,26 @@
         <v>17</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="77"/>
       <c r="K2" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>19</v>
@@ -7544,16 +7574,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F3" s="75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I3" s="77" t="n">
         <v>2</v>
@@ -7563,7 +7593,7 @@
         <v>202</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>19</v>
@@ -7583,26 +7613,26 @@
         <v>17</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>19</v>
@@ -7627,16 +7657,16 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="H4 D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7651,10 +7681,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7668,7 +7698,7 @@
         <v>145</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -7685,7 +7715,7 @@
         <v>150</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -7702,7 +7732,7 @@
         <v>153</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -7719,7 +7749,7 @@
         <v>156</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -7736,7 +7766,7 @@
         <v>162</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -7753,7 +7783,7 @@
         <v>163</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -7770,7 +7800,7 @@
         <v>164</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -7787,7 +7817,7 @@
         <v>165</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -7804,7 +7834,7 @@
         <v>168</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -7821,7 +7851,7 @@
         <v>169</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -7838,7 +7868,7 @@
         <v>170</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -7855,7 +7885,7 @@
         <v>171</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -7872,7 +7902,7 @@
         <v>180</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -7889,7 +7919,7 @@
         <v>181</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -7906,7 +7936,7 @@
         <v>182</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -7923,7 +7953,7 @@
         <v>183</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
